--- a/Entscheidungsmatrix.xlsx
+++ b/Entscheidungsmatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d04783ee960ce8a3/Dokumente/Daten IMS/BBW/Programmiermodul/14_ProjektMultimedia/Setup-Flick-AG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57951BB2-0630-4635-B8C4-E7DC4433C2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{57951BB2-0630-4635-B8C4-E7DC4433C2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F0C8CDD-B275-48AB-8BCA-E427AAC199EF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4CE549F-F655-4DBF-B4A7-DBFBB5893335}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4CE549F-F655-4DBF-B4A7-DBFBB5893335}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>Toolauswahl für die Bildbearbeitung</t>
+  </si>
+  <si>
+    <t>Kriterium</t>
+  </si>
+  <si>
+    <t>Gewichtung</t>
+  </si>
+  <si>
+    <t>Punkte</t>
+  </si>
+  <si>
+    <t>Nutzwert</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>GIMP</t>
+  </si>
+  <si>
+    <t>Pixlr</t>
+  </si>
+  <si>
+    <t>professionelle Ausrichtung</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Erfahrung</t>
+  </si>
+  <si>
+    <t>Bedienbarkeit der Bedienoberfläche</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -382,12 +431,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB53D7AC-9767-4C31-A28B-F401E896E9F1}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>C4*D4</f>
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f>$C4*F4</f>
+        <v>0.75</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f>$C4*H4</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E8" si="0">C5*D5</f>
+        <v>1.6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:I8" si="1">$C5*F5</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM(C4:C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:I9" si="2">SUM(D4:D8)</f>
+        <v>44</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>